--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from MedDRA" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,10 +93,10 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>https://placeholder.com</t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
   </si>
   <si>
     <t/>
@@ -105,7 +105,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>urn:ietf:rfc:3986</t>
+    <t>http://terminology.hl7.org/CodeSystem/mdr</t>
   </si>
 </sst>
 </file>
@@ -384,15 +384,11 @@
       <c r="A1" t="s" s="1">
         <v>26</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/meddra</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/meddra</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T15:04:58+00:00</t>
+    <t>2022-12-14T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T21:05:48+00:00</t>
+    <t>2023-04-05T09:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-meddra.xlsx
+++ b/branches/master/ValueSet-meddra.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
